--- a/data/outputs/management_altmetric/35.xlsx
+++ b/data/outputs/management_altmetric/35.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE27"/>
+  <dimension ref="A1:CF27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1023,6 +1028,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1282,6 +1290,9 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1513,6 +1524,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1762,6 +1776,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2011,6 +2028,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2254,6 +2274,9 @@
         <v>0</v>
       </c>
       <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2497,6 +2520,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2746,6 +2772,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2993,6 +3022,9 @@
         <v>0</v>
       </c>
       <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3224,6 +3256,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3465,6 +3500,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3712,6 +3750,9 @@
         <v>0</v>
       </c>
       <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3955,6 +3996,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4202,6 +4246,9 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4451,6 +4498,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>4.35</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4706,6 +4756,9 @@
         <v>0</v>
       </c>
       <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4941,6 +4994,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5182,6 +5238,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5441,6 +5500,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5688,6 +5750,9 @@
         <v>0</v>
       </c>
       <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5931,6 +5996,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6180,6 +6248,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6429,6 +6500,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6675,6 +6749,9 @@
       </c>
       <c r="CE25" t="n">
         <v>0</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="26">
@@ -6905,6 +6982,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7150,6 +7230,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
